--- a/利润表/688598.xlsx
+++ b/利润表/688598.xlsx
@@ -734,47 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>114273999.06</v>
+        <v>70632634.43000001</v>
       </c>
       <c r="P2" t="n">
-        <v>288355225.66</v>
+        <v>189787133.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>174759025.36</v>
-      </c>
-      <c r="R2" t="n">
-        <v>49.8011535162</v>
-      </c>
+        <v>116660667.33</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>107843086.31</v>
+        <v>70373515.78</v>
       </c>
       <c r="T2" t="n">
-        <v>107843086.31</v>
-      </c>
-      <c r="U2" t="n">
-        <v>53.243851916</v>
-      </c>
+        <v>70373515.78</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>13048531.3</v>
+        <v>9891868.42</v>
       </c>
       <c r="W2" t="n">
-        <v>25321119.14</v>
+        <v>13918491.52</v>
       </c>
       <c r="X2" t="n">
-        <v>1073958.91</v>
+        <v>1568600.86</v>
       </c>
       <c r="Y2" t="n">
-        <v>135112986.64</v>
+        <v>82564264.17</v>
       </c>
       <c r="Z2" t="n">
-        <v>134375750.53</v>
+        <v>82434264.17</v>
       </c>
       <c r="AA2" t="n">
-        <v>20101751.47</v>
+        <v>11801629.74</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>2236812.94</v>
+        <v>2749156.13</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,21 +788,13 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>51.9361302775</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>63.645843632546</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>61.79</v>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>95628918.17</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>62.16418526909</v>
-      </c>
+        <v>58970430.5</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/688598.xlsx
+++ b/利润表/688598.xlsx
@@ -734,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>70632634.43000001</v>
+        <v>114273999.06</v>
       </c>
       <c r="P2" t="n">
-        <v>189787133.01</v>
+        <v>288355225.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>116660667.33</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>174759025.36</v>
+      </c>
+      <c r="R2" t="n">
+        <v>49.8011535162</v>
+      </c>
       <c r="S2" t="n">
-        <v>70373515.78</v>
+        <v>107843086.31</v>
       </c>
       <c r="T2" t="n">
-        <v>70373515.78</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>107843086.31</v>
+      </c>
+      <c r="U2" t="n">
+        <v>53.243851916</v>
+      </c>
       <c r="V2" t="n">
-        <v>9891868.42</v>
+        <v>13048531.3</v>
       </c>
       <c r="W2" t="n">
-        <v>13918491.52</v>
+        <v>25321119.14</v>
       </c>
       <c r="X2" t="n">
-        <v>1568600.86</v>
+        <v>1073958.91</v>
       </c>
       <c r="Y2" t="n">
-        <v>82564264.17</v>
+        <v>135112986.64</v>
       </c>
       <c r="Z2" t="n">
-        <v>82434264.17</v>
+        <v>134375750.53</v>
       </c>
       <c r="AA2" t="n">
-        <v>11801629.74</v>
+        <v>20101751.47</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>2749156.13</v>
+        <v>2236812.94</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -788,13 +792,21 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>51.9361302775</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>63.645843632546</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>61.79</v>
+      </c>
       <c r="AS2" t="n">
-        <v>58970430.5</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>95628918.17</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>62.16418526909</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
